--- a/tests/xlsx/many_sheets.xlsx
+++ b/tests/xlsx/many_sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\edit-xlsx\tests\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pt/Projects/Github/edit-xlsx/tests/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97927BD4-494A-497B-BB11-A227213CE5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F10A1-AF4B-914F-8339-65AF09FD80DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="13900" firstSheet="497" activeTab="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,501 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
+    <sheet name="Sheet38" sheetId="38" r:id="rId38"/>
+    <sheet name="Sheet39" sheetId="39" r:id="rId39"/>
+    <sheet name="Sheet40" sheetId="40" r:id="rId40"/>
+    <sheet name="Sheet41" sheetId="41" r:id="rId41"/>
+    <sheet name="Sheet42" sheetId="42" r:id="rId42"/>
+    <sheet name="Sheet43" sheetId="43" r:id="rId43"/>
+    <sheet name="Sheet44" sheetId="44" r:id="rId44"/>
+    <sheet name="Sheet45" sheetId="45" r:id="rId45"/>
+    <sheet name="Sheet46" sheetId="46" r:id="rId46"/>
+    <sheet name="Sheet47" sheetId="47" r:id="rId47"/>
+    <sheet name="Sheet48" sheetId="48" r:id="rId48"/>
+    <sheet name="Sheet49" sheetId="49" r:id="rId49"/>
+    <sheet name="Sheet50" sheetId="50" r:id="rId50"/>
+    <sheet name="Sheet51" sheetId="51" r:id="rId51"/>
+    <sheet name="Sheet52" sheetId="52" r:id="rId52"/>
+    <sheet name="Sheet53" sheetId="53" r:id="rId53"/>
+    <sheet name="Sheet54" sheetId="54" r:id="rId54"/>
+    <sheet name="Sheet55" sheetId="55" r:id="rId55"/>
+    <sheet name="Sheet56" sheetId="56" r:id="rId56"/>
+    <sheet name="Sheet57" sheetId="57" r:id="rId57"/>
+    <sheet name="Sheet58" sheetId="58" r:id="rId58"/>
+    <sheet name="Sheet59" sheetId="59" r:id="rId59"/>
+    <sheet name="Sheet60" sheetId="60" r:id="rId60"/>
+    <sheet name="Sheet61" sheetId="61" r:id="rId61"/>
+    <sheet name="Sheet62" sheetId="62" r:id="rId62"/>
+    <sheet name="Sheet63" sheetId="63" r:id="rId63"/>
+    <sheet name="Sheet64" sheetId="64" r:id="rId64"/>
+    <sheet name="Sheet65" sheetId="65" r:id="rId65"/>
+    <sheet name="Sheet66" sheetId="66" r:id="rId66"/>
+    <sheet name="Sheet67" sheetId="67" r:id="rId67"/>
+    <sheet name="Sheet68" sheetId="68" r:id="rId68"/>
+    <sheet name="Sheet69" sheetId="69" r:id="rId69"/>
+    <sheet name="Sheet70" sheetId="70" r:id="rId70"/>
+    <sheet name="Sheet71" sheetId="71" r:id="rId71"/>
+    <sheet name="Sheet72" sheetId="72" r:id="rId72"/>
+    <sheet name="Sheet73" sheetId="73" r:id="rId73"/>
+    <sheet name="Sheet74" sheetId="74" r:id="rId74"/>
+    <sheet name="Sheet75" sheetId="75" r:id="rId75"/>
+    <sheet name="Sheet76" sheetId="76" r:id="rId76"/>
+    <sheet name="Sheet77" sheetId="77" r:id="rId77"/>
+    <sheet name="Sheet78" sheetId="78" r:id="rId78"/>
+    <sheet name="Sheet79" sheetId="79" r:id="rId79"/>
+    <sheet name="Sheet80" sheetId="80" r:id="rId80"/>
+    <sheet name="Sheet81" sheetId="81" r:id="rId81"/>
+    <sheet name="Sheet82" sheetId="82" r:id="rId82"/>
+    <sheet name="Sheet83" sheetId="83" r:id="rId83"/>
+    <sheet name="Sheet84" sheetId="84" r:id="rId84"/>
+    <sheet name="Sheet85" sheetId="85" r:id="rId85"/>
+    <sheet name="Sheet86" sheetId="86" r:id="rId86"/>
+    <sheet name="Sheet87" sheetId="87" r:id="rId87"/>
+    <sheet name="Sheet88" sheetId="88" r:id="rId88"/>
+    <sheet name="Sheet89" sheetId="89" r:id="rId89"/>
+    <sheet name="Sheet90" sheetId="90" r:id="rId90"/>
+    <sheet name="Sheet91" sheetId="91" r:id="rId91"/>
+    <sheet name="Sheet92" sheetId="92" r:id="rId92"/>
+    <sheet name="Sheet93" sheetId="93" r:id="rId93"/>
+    <sheet name="Sheet94" sheetId="94" r:id="rId94"/>
+    <sheet name="Sheet95" sheetId="95" r:id="rId95"/>
+    <sheet name="Sheet96" sheetId="96" r:id="rId96"/>
+    <sheet name="Sheet97" sheetId="97" r:id="rId97"/>
+    <sheet name="Sheet98" sheetId="98" r:id="rId98"/>
+    <sheet name="Sheet99" sheetId="99" r:id="rId99"/>
+    <sheet name="Sheet100" sheetId="100" r:id="rId100"/>
+    <sheet name="Sheet101" sheetId="101" r:id="rId101"/>
+    <sheet name="Sheet102" sheetId="102" r:id="rId102"/>
+    <sheet name="Sheet103" sheetId="103" r:id="rId103"/>
+    <sheet name="Sheet104" sheetId="104" r:id="rId104"/>
+    <sheet name="Sheet105" sheetId="105" r:id="rId105"/>
+    <sheet name="Sheet106" sheetId="106" r:id="rId106"/>
+    <sheet name="Sheet107" sheetId="107" r:id="rId107"/>
+    <sheet name="Sheet108" sheetId="108" r:id="rId108"/>
+    <sheet name="Sheet109" sheetId="109" r:id="rId109"/>
+    <sheet name="Sheet110" sheetId="110" r:id="rId110"/>
+    <sheet name="Sheet111" sheetId="111" r:id="rId111"/>
+    <sheet name="Sheet112" sheetId="112" r:id="rId112"/>
+    <sheet name="Sheet113" sheetId="113" r:id="rId113"/>
+    <sheet name="Sheet114" sheetId="114" r:id="rId114"/>
+    <sheet name="Sheet115" sheetId="115" r:id="rId115"/>
+    <sheet name="Sheet116" sheetId="116" r:id="rId116"/>
+    <sheet name="Sheet117" sheetId="117" r:id="rId117"/>
+    <sheet name="Sheet118" sheetId="118" r:id="rId118"/>
+    <sheet name="Sheet119" sheetId="119" r:id="rId119"/>
+    <sheet name="Sheet120" sheetId="120" r:id="rId120"/>
+    <sheet name="Sheet121" sheetId="121" r:id="rId121"/>
+    <sheet name="Sheet122" sheetId="122" r:id="rId122"/>
+    <sheet name="Sheet123" sheetId="123" r:id="rId123"/>
+    <sheet name="Sheet124" sheetId="124" r:id="rId124"/>
+    <sheet name="Sheet125" sheetId="125" r:id="rId125"/>
+    <sheet name="Sheet126" sheetId="126" r:id="rId126"/>
+    <sheet name="Sheet127" sheetId="127" r:id="rId127"/>
+    <sheet name="Sheet128" sheetId="128" r:id="rId128"/>
+    <sheet name="Sheet129" sheetId="129" r:id="rId129"/>
+    <sheet name="Sheet130" sheetId="130" r:id="rId130"/>
+    <sheet name="Sheet131" sheetId="131" r:id="rId131"/>
+    <sheet name="Sheet132" sheetId="132" r:id="rId132"/>
+    <sheet name="Sheet133" sheetId="133" r:id="rId133"/>
+    <sheet name="Sheet134" sheetId="134" r:id="rId134"/>
+    <sheet name="Sheet135" sheetId="135" r:id="rId135"/>
+    <sheet name="Sheet136" sheetId="136" r:id="rId136"/>
+    <sheet name="Sheet137" sheetId="137" r:id="rId137"/>
+    <sheet name="Sheet138" sheetId="138" r:id="rId138"/>
+    <sheet name="Sheet139" sheetId="139" r:id="rId139"/>
+    <sheet name="Sheet140" sheetId="140" r:id="rId140"/>
+    <sheet name="Sheet141" sheetId="141" r:id="rId141"/>
+    <sheet name="Sheet142" sheetId="142" r:id="rId142"/>
+    <sheet name="Sheet143" sheetId="143" r:id="rId143"/>
+    <sheet name="Sheet144" sheetId="144" r:id="rId144"/>
+    <sheet name="Sheet145" sheetId="145" r:id="rId145"/>
+    <sheet name="Sheet146" sheetId="146" r:id="rId146"/>
+    <sheet name="Sheet147" sheetId="147" r:id="rId147"/>
+    <sheet name="Sheet148" sheetId="148" r:id="rId148"/>
+    <sheet name="Sheet149" sheetId="149" r:id="rId149"/>
+    <sheet name="Sheet150" sheetId="150" r:id="rId150"/>
+    <sheet name="Sheet151" sheetId="151" r:id="rId151"/>
+    <sheet name="Sheet152" sheetId="152" r:id="rId152"/>
+    <sheet name="Sheet153" sheetId="153" r:id="rId153"/>
+    <sheet name="Sheet154" sheetId="154" r:id="rId154"/>
+    <sheet name="Sheet155" sheetId="155" r:id="rId155"/>
+    <sheet name="Sheet156" sheetId="156" r:id="rId156"/>
+    <sheet name="Sheet157" sheetId="157" r:id="rId157"/>
+    <sheet name="Sheet158" sheetId="158" r:id="rId158"/>
+    <sheet name="Sheet159" sheetId="159" r:id="rId159"/>
+    <sheet name="Sheet160" sheetId="160" r:id="rId160"/>
+    <sheet name="Sheet161" sheetId="161" r:id="rId161"/>
+    <sheet name="Sheet162" sheetId="162" r:id="rId162"/>
+    <sheet name="Sheet163" sheetId="163" r:id="rId163"/>
+    <sheet name="Sheet164" sheetId="164" r:id="rId164"/>
+    <sheet name="Sheet165" sheetId="165" r:id="rId165"/>
+    <sheet name="Sheet166" sheetId="166" r:id="rId166"/>
+    <sheet name="Sheet167" sheetId="167" r:id="rId167"/>
+    <sheet name="Sheet168" sheetId="168" r:id="rId168"/>
+    <sheet name="Sheet169" sheetId="169" r:id="rId169"/>
+    <sheet name="Sheet170" sheetId="170" r:id="rId170"/>
+    <sheet name="Sheet171" sheetId="171" r:id="rId171"/>
+    <sheet name="Sheet172" sheetId="172" r:id="rId172"/>
+    <sheet name="Sheet173" sheetId="173" r:id="rId173"/>
+    <sheet name="Sheet174" sheetId="174" r:id="rId174"/>
+    <sheet name="Sheet175" sheetId="175" r:id="rId175"/>
+    <sheet name="Sheet176" sheetId="176" r:id="rId176"/>
+    <sheet name="Sheet177" sheetId="177" r:id="rId177"/>
+    <sheet name="Sheet178" sheetId="178" r:id="rId178"/>
+    <sheet name="Sheet179" sheetId="179" r:id="rId179"/>
+    <sheet name="Sheet180" sheetId="180" r:id="rId180"/>
+    <sheet name="Sheet181" sheetId="181" r:id="rId181"/>
+    <sheet name="Sheet182" sheetId="182" r:id="rId182"/>
+    <sheet name="Sheet183" sheetId="183" r:id="rId183"/>
+    <sheet name="Sheet184" sheetId="184" r:id="rId184"/>
+    <sheet name="Sheet185" sheetId="185" r:id="rId185"/>
+    <sheet name="Sheet186" sheetId="186" r:id="rId186"/>
+    <sheet name="Sheet187" sheetId="187" r:id="rId187"/>
+    <sheet name="Sheet188" sheetId="188" r:id="rId188"/>
+    <sheet name="Sheet189" sheetId="189" r:id="rId189"/>
+    <sheet name="Sheet190" sheetId="190" r:id="rId190"/>
+    <sheet name="Sheet191" sheetId="191" r:id="rId191"/>
+    <sheet name="Sheet192" sheetId="192" r:id="rId192"/>
+    <sheet name="Sheet193" sheetId="193" r:id="rId193"/>
+    <sheet name="Sheet194" sheetId="194" r:id="rId194"/>
+    <sheet name="Sheet195" sheetId="195" r:id="rId195"/>
+    <sheet name="Sheet196" sheetId="196" r:id="rId196"/>
+    <sheet name="Sheet197" sheetId="197" r:id="rId197"/>
+    <sheet name="Sheet198" sheetId="198" r:id="rId198"/>
+    <sheet name="Sheet199" sheetId="199" r:id="rId199"/>
+    <sheet name="Sheet200" sheetId="200" r:id="rId200"/>
+    <sheet name="Sheet201" sheetId="201" r:id="rId201"/>
+    <sheet name="Sheet202" sheetId="202" r:id="rId202"/>
+    <sheet name="Sheet203" sheetId="203" r:id="rId203"/>
+    <sheet name="Sheet204" sheetId="204" r:id="rId204"/>
+    <sheet name="Sheet205" sheetId="205" r:id="rId205"/>
+    <sheet name="Sheet206" sheetId="206" r:id="rId206"/>
+    <sheet name="Sheet207" sheetId="207" r:id="rId207"/>
+    <sheet name="Sheet208" sheetId="208" r:id="rId208"/>
+    <sheet name="Sheet209" sheetId="209" r:id="rId209"/>
+    <sheet name="Sheet210" sheetId="210" r:id="rId210"/>
+    <sheet name="Sheet211" sheetId="211" r:id="rId211"/>
+    <sheet name="Sheet212" sheetId="212" r:id="rId212"/>
+    <sheet name="Sheet213" sheetId="213" r:id="rId213"/>
+    <sheet name="Sheet214" sheetId="214" r:id="rId214"/>
+    <sheet name="Sheet215" sheetId="215" r:id="rId215"/>
+    <sheet name="Sheet216" sheetId="216" r:id="rId216"/>
+    <sheet name="Sheet217" sheetId="217" r:id="rId217"/>
+    <sheet name="Sheet218" sheetId="218" r:id="rId218"/>
+    <sheet name="Sheet219" sheetId="219" r:id="rId219"/>
+    <sheet name="Sheet220" sheetId="220" r:id="rId220"/>
+    <sheet name="Sheet221" sheetId="221" r:id="rId221"/>
+    <sheet name="Sheet222" sheetId="222" r:id="rId222"/>
+    <sheet name="Sheet223" sheetId="223" r:id="rId223"/>
+    <sheet name="Sheet224" sheetId="224" r:id="rId224"/>
+    <sheet name="Sheet225" sheetId="225" r:id="rId225"/>
+    <sheet name="Sheet226" sheetId="226" r:id="rId226"/>
+    <sheet name="Sheet227" sheetId="227" r:id="rId227"/>
+    <sheet name="Sheet228" sheetId="228" r:id="rId228"/>
+    <sheet name="Sheet229" sheetId="229" r:id="rId229"/>
+    <sheet name="Sheet230" sheetId="230" r:id="rId230"/>
+    <sheet name="Sheet231" sheetId="231" r:id="rId231"/>
+    <sheet name="Sheet232" sheetId="232" r:id="rId232"/>
+    <sheet name="Sheet233" sheetId="233" r:id="rId233"/>
+    <sheet name="Sheet234" sheetId="234" r:id="rId234"/>
+    <sheet name="Sheet235" sheetId="235" r:id="rId235"/>
+    <sheet name="Sheet236" sheetId="236" r:id="rId236"/>
+    <sheet name="Sheet237" sheetId="237" r:id="rId237"/>
+    <sheet name="Sheet238" sheetId="238" r:id="rId238"/>
+    <sheet name="Sheet239" sheetId="239" r:id="rId239"/>
+    <sheet name="Sheet240" sheetId="240" r:id="rId240"/>
+    <sheet name="Sheet241" sheetId="241" r:id="rId241"/>
+    <sheet name="Sheet242" sheetId="242" r:id="rId242"/>
+    <sheet name="Sheet243" sheetId="243" r:id="rId243"/>
+    <sheet name="Sheet244" sheetId="244" r:id="rId244"/>
+    <sheet name="Sheet245" sheetId="245" r:id="rId245"/>
+    <sheet name="Sheet246" sheetId="246" r:id="rId246"/>
+    <sheet name="Sheet247" sheetId="247" r:id="rId247"/>
+    <sheet name="Sheet248" sheetId="248" r:id="rId248"/>
+    <sheet name="Sheet249" sheetId="249" r:id="rId249"/>
+    <sheet name="Sheet250" sheetId="250" r:id="rId250"/>
+    <sheet name="Sheet251" sheetId="251" r:id="rId251"/>
+    <sheet name="Sheet252" sheetId="252" r:id="rId252"/>
+    <sheet name="Sheet253" sheetId="253" r:id="rId253"/>
+    <sheet name="Sheet254" sheetId="254" r:id="rId254"/>
+    <sheet name="Sheet255" sheetId="255" r:id="rId255"/>
+    <sheet name="Sheet256" sheetId="256" r:id="rId256"/>
+    <sheet name="Sheet257" sheetId="257" r:id="rId257"/>
+    <sheet name="Sheet258" sheetId="258" r:id="rId258"/>
+    <sheet name="Sheet259" sheetId="259" r:id="rId259"/>
+    <sheet name="Sheet260" sheetId="260" r:id="rId260"/>
+    <sheet name="Sheet261" sheetId="261" r:id="rId261"/>
+    <sheet name="Sheet262" sheetId="262" r:id="rId262"/>
+    <sheet name="Sheet263" sheetId="263" r:id="rId263"/>
+    <sheet name="Sheet264" sheetId="264" r:id="rId264"/>
+    <sheet name="Sheet265" sheetId="265" r:id="rId265"/>
+    <sheet name="Sheet266" sheetId="266" r:id="rId266"/>
+    <sheet name="Sheet267" sheetId="267" r:id="rId267"/>
+    <sheet name="Sheet268" sheetId="268" r:id="rId268"/>
+    <sheet name="Sheet269" sheetId="269" r:id="rId269"/>
+    <sheet name="Sheet270" sheetId="270" r:id="rId270"/>
+    <sheet name="Sheet271" sheetId="271" r:id="rId271"/>
+    <sheet name="Sheet272" sheetId="272" r:id="rId272"/>
+    <sheet name="Sheet273" sheetId="273" r:id="rId273"/>
+    <sheet name="Sheet274" sheetId="274" r:id="rId274"/>
+    <sheet name="Sheet275" sheetId="275" r:id="rId275"/>
+    <sheet name="Sheet276" sheetId="276" r:id="rId276"/>
+    <sheet name="Sheet277" sheetId="277" r:id="rId277"/>
+    <sheet name="Sheet278" sheetId="278" r:id="rId278"/>
+    <sheet name="Sheet279" sheetId="279" r:id="rId279"/>
+    <sheet name="Sheet280" sheetId="280" r:id="rId280"/>
+    <sheet name="Sheet281" sheetId="281" r:id="rId281"/>
+    <sheet name="Sheet282" sheetId="282" r:id="rId282"/>
+    <sheet name="Sheet283" sheetId="283" r:id="rId283"/>
+    <sheet name="Sheet284" sheetId="284" r:id="rId284"/>
+    <sheet name="Sheet285" sheetId="285" r:id="rId285"/>
+    <sheet name="Sheet286" sheetId="286" r:id="rId286"/>
+    <sheet name="Sheet287" sheetId="287" r:id="rId287"/>
+    <sheet name="Sheet288" sheetId="288" r:id="rId288"/>
+    <sheet name="Sheet289" sheetId="289" r:id="rId289"/>
+    <sheet name="Sheet290" sheetId="290" r:id="rId290"/>
+    <sheet name="Sheet291" sheetId="291" r:id="rId291"/>
+    <sheet name="Sheet292" sheetId="292" r:id="rId292"/>
+    <sheet name="Sheet293" sheetId="293" r:id="rId293"/>
+    <sheet name="Sheet294" sheetId="294" r:id="rId294"/>
+    <sheet name="Sheet295" sheetId="295" r:id="rId295"/>
+    <sheet name="Sheet296" sheetId="296" r:id="rId296"/>
+    <sheet name="Sheet297" sheetId="297" r:id="rId297"/>
+    <sheet name="Sheet298" sheetId="298" r:id="rId298"/>
+    <sheet name="Sheet299" sheetId="299" r:id="rId299"/>
+    <sheet name="Sheet300" sheetId="300" r:id="rId300"/>
+    <sheet name="Sheet301" sheetId="301" r:id="rId301"/>
+    <sheet name="Sheet302" sheetId="302" r:id="rId302"/>
+    <sheet name="Sheet303" sheetId="303" r:id="rId303"/>
+    <sheet name="Sheet304" sheetId="304" r:id="rId304"/>
+    <sheet name="Sheet305" sheetId="305" r:id="rId305"/>
+    <sheet name="Sheet306" sheetId="306" r:id="rId306"/>
+    <sheet name="Sheet307" sheetId="307" r:id="rId307"/>
+    <sheet name="Sheet308" sheetId="308" r:id="rId308"/>
+    <sheet name="Sheet309" sheetId="309" r:id="rId309"/>
+    <sheet name="Sheet310" sheetId="310" r:id="rId310"/>
+    <sheet name="Sheet311" sheetId="311" r:id="rId311"/>
+    <sheet name="Sheet312" sheetId="312" r:id="rId312"/>
+    <sheet name="Sheet313" sheetId="313" r:id="rId313"/>
+    <sheet name="Sheet314" sheetId="314" r:id="rId314"/>
+    <sheet name="Sheet315" sheetId="315" r:id="rId315"/>
+    <sheet name="Sheet316" sheetId="316" r:id="rId316"/>
+    <sheet name="Sheet317" sheetId="317" r:id="rId317"/>
+    <sheet name="Sheet318" sheetId="318" r:id="rId318"/>
+    <sheet name="Sheet319" sheetId="319" r:id="rId319"/>
+    <sheet name="Sheet320" sheetId="320" r:id="rId320"/>
+    <sheet name="Sheet321" sheetId="321" r:id="rId321"/>
+    <sheet name="Sheet322" sheetId="322" r:id="rId322"/>
+    <sheet name="Sheet323" sheetId="323" r:id="rId323"/>
+    <sheet name="Sheet324" sheetId="324" r:id="rId324"/>
+    <sheet name="Sheet325" sheetId="325" r:id="rId325"/>
+    <sheet name="Sheet326" sheetId="326" r:id="rId326"/>
+    <sheet name="Sheet327" sheetId="327" r:id="rId327"/>
+    <sheet name="Sheet328" sheetId="328" r:id="rId328"/>
+    <sheet name="Sheet329" sheetId="329" r:id="rId329"/>
+    <sheet name="Sheet330" sheetId="330" r:id="rId330"/>
+    <sheet name="Sheet331" sheetId="331" r:id="rId331"/>
+    <sheet name="Sheet332" sheetId="332" r:id="rId332"/>
+    <sheet name="Sheet333" sheetId="333" r:id="rId333"/>
+    <sheet name="Sheet334" sheetId="334" r:id="rId334"/>
+    <sheet name="Sheet335" sheetId="335" r:id="rId335"/>
+    <sheet name="Sheet336" sheetId="336" r:id="rId336"/>
+    <sheet name="Sheet337" sheetId="337" r:id="rId337"/>
+    <sheet name="Sheet338" sheetId="338" r:id="rId338"/>
+    <sheet name="Sheet339" sheetId="339" r:id="rId339"/>
+    <sheet name="Sheet340" sheetId="340" r:id="rId340"/>
+    <sheet name="Sheet341" sheetId="341" r:id="rId341"/>
+    <sheet name="Sheet342" sheetId="342" r:id="rId342"/>
+    <sheet name="Sheet343" sheetId="343" r:id="rId343"/>
+    <sheet name="Sheet344" sheetId="344" r:id="rId344"/>
+    <sheet name="Sheet345" sheetId="345" r:id="rId345"/>
+    <sheet name="Sheet346" sheetId="346" r:id="rId346"/>
+    <sheet name="Sheet347" sheetId="347" r:id="rId347"/>
+    <sheet name="Sheet348" sheetId="348" r:id="rId348"/>
+    <sheet name="Sheet349" sheetId="349" r:id="rId349"/>
+    <sheet name="Sheet350" sheetId="350" r:id="rId350"/>
+    <sheet name="Sheet351" sheetId="351" r:id="rId351"/>
+    <sheet name="Sheet352" sheetId="352" r:id="rId352"/>
+    <sheet name="Sheet353" sheetId="353" r:id="rId353"/>
+    <sheet name="Sheet354" sheetId="354" r:id="rId354"/>
+    <sheet name="Sheet355" sheetId="355" r:id="rId355"/>
+    <sheet name="Sheet356" sheetId="356" r:id="rId356"/>
+    <sheet name="Sheet357" sheetId="357" r:id="rId357"/>
+    <sheet name="Sheet358" sheetId="358" r:id="rId358"/>
+    <sheet name="Sheet359" sheetId="359" r:id="rId359"/>
+    <sheet name="Sheet360" sheetId="360" r:id="rId360"/>
+    <sheet name="Sheet361" sheetId="361" r:id="rId361"/>
+    <sheet name="Sheet362" sheetId="362" r:id="rId362"/>
+    <sheet name="Sheet363" sheetId="363" r:id="rId363"/>
+    <sheet name="Sheet364" sheetId="364" r:id="rId364"/>
+    <sheet name="Sheet365" sheetId="365" r:id="rId365"/>
+    <sheet name="Sheet366" sheetId="366" r:id="rId366"/>
+    <sheet name="Sheet367" sheetId="367" r:id="rId367"/>
+    <sheet name="Sheet368" sheetId="368" r:id="rId368"/>
+    <sheet name="Sheet369" sheetId="369" r:id="rId369"/>
+    <sheet name="Sheet370" sheetId="370" r:id="rId370"/>
+    <sheet name="Sheet371" sheetId="371" r:id="rId371"/>
+    <sheet name="Sheet372" sheetId="372" r:id="rId372"/>
+    <sheet name="Sheet373" sheetId="373" r:id="rId373"/>
+    <sheet name="Sheet374" sheetId="374" r:id="rId374"/>
+    <sheet name="Sheet375" sheetId="375" r:id="rId375"/>
+    <sheet name="Sheet376" sheetId="376" r:id="rId376"/>
+    <sheet name="Sheet377" sheetId="377" r:id="rId377"/>
+    <sheet name="Sheet378" sheetId="378" r:id="rId378"/>
+    <sheet name="Sheet379" sheetId="379" r:id="rId379"/>
+    <sheet name="Sheet380" sheetId="380" r:id="rId380"/>
+    <sheet name="Sheet381" sheetId="381" r:id="rId381"/>
+    <sheet name="Sheet382" sheetId="382" r:id="rId382"/>
+    <sheet name="Sheet383" sheetId="383" r:id="rId383"/>
+    <sheet name="Sheet384" sheetId="384" r:id="rId384"/>
+    <sheet name="Sheet385" sheetId="385" r:id="rId385"/>
+    <sheet name="Sheet386" sheetId="386" r:id="rId386"/>
+    <sheet name="Sheet387" sheetId="387" r:id="rId387"/>
+    <sheet name="Sheet388" sheetId="388" r:id="rId388"/>
+    <sheet name="Sheet389" sheetId="389" r:id="rId389"/>
+    <sheet name="Sheet390" sheetId="390" r:id="rId390"/>
+    <sheet name="Sheet391" sheetId="391" r:id="rId391"/>
+    <sheet name="Sheet392" sheetId="392" r:id="rId392"/>
+    <sheet name="Sheet393" sheetId="393" r:id="rId393"/>
+    <sheet name="Sheet394" sheetId="394" r:id="rId394"/>
+    <sheet name="Sheet395" sheetId="395" r:id="rId395"/>
+    <sheet name="Sheet396" sheetId="396" r:id="rId396"/>
+    <sheet name="Sheet397" sheetId="397" r:id="rId397"/>
+    <sheet name="Sheet398" sheetId="398" r:id="rId398"/>
+    <sheet name="Sheet399" sheetId="399" r:id="rId399"/>
+    <sheet name="Sheet400" sheetId="400" r:id="rId400"/>
+    <sheet name="Sheet401" sheetId="401" r:id="rId401"/>
+    <sheet name="Sheet402" sheetId="402" r:id="rId402"/>
+    <sheet name="Sheet403" sheetId="403" r:id="rId403"/>
+    <sheet name="Sheet404" sheetId="404" r:id="rId404"/>
+    <sheet name="Sheet405" sheetId="405" r:id="rId405"/>
+    <sheet name="Sheet406" sheetId="406" r:id="rId406"/>
+    <sheet name="Sheet407" sheetId="407" r:id="rId407"/>
+    <sheet name="Sheet408" sheetId="408" r:id="rId408"/>
+    <sheet name="Sheet409" sheetId="409" r:id="rId409"/>
+    <sheet name="Sheet410" sheetId="410" r:id="rId410"/>
+    <sheet name="Sheet411" sheetId="411" r:id="rId411"/>
+    <sheet name="Sheet412" sheetId="412" r:id="rId412"/>
+    <sheet name="Sheet413" sheetId="413" r:id="rId413"/>
+    <sheet name="Sheet414" sheetId="414" r:id="rId414"/>
+    <sheet name="Sheet415" sheetId="415" r:id="rId415"/>
+    <sheet name="Sheet416" sheetId="416" r:id="rId416"/>
+    <sheet name="Sheet417" sheetId="417" r:id="rId417"/>
+    <sheet name="Sheet418" sheetId="418" r:id="rId418"/>
+    <sheet name="Sheet419" sheetId="419" r:id="rId419"/>
+    <sheet name="Sheet420" sheetId="420" r:id="rId420"/>
+    <sheet name="Sheet421" sheetId="421" r:id="rId421"/>
+    <sheet name="Sheet422" sheetId="422" r:id="rId422"/>
+    <sheet name="Sheet423" sheetId="423" r:id="rId423"/>
+    <sheet name="Sheet424" sheetId="424" r:id="rId424"/>
+    <sheet name="Sheet425" sheetId="425" r:id="rId425"/>
+    <sheet name="Sheet426" sheetId="426" r:id="rId426"/>
+    <sheet name="Sheet427" sheetId="427" r:id="rId427"/>
+    <sheet name="Sheet428" sheetId="428" r:id="rId428"/>
+    <sheet name="Sheet429" sheetId="429" r:id="rId429"/>
+    <sheet name="Sheet430" sheetId="430" r:id="rId430"/>
+    <sheet name="Sheet431" sheetId="431" r:id="rId431"/>
+    <sheet name="Sheet432" sheetId="432" r:id="rId432"/>
+    <sheet name="Sheet433" sheetId="433" r:id="rId433"/>
+    <sheet name="Sheet434" sheetId="434" r:id="rId434"/>
+    <sheet name="Sheet435" sheetId="435" r:id="rId435"/>
+    <sheet name="Sheet436" sheetId="436" r:id="rId436"/>
+    <sheet name="Sheet437" sheetId="437" r:id="rId437"/>
+    <sheet name="Sheet438" sheetId="438" r:id="rId438"/>
+    <sheet name="Sheet439" sheetId="439" r:id="rId439"/>
+    <sheet name="Sheet440" sheetId="440" r:id="rId440"/>
+    <sheet name="Sheet441" sheetId="441" r:id="rId441"/>
+    <sheet name="Sheet442" sheetId="442" r:id="rId442"/>
+    <sheet name="Sheet443" sheetId="443" r:id="rId443"/>
+    <sheet name="Sheet444" sheetId="444" r:id="rId444"/>
+    <sheet name="Sheet445" sheetId="445" r:id="rId445"/>
+    <sheet name="Sheet446" sheetId="446" r:id="rId446"/>
+    <sheet name="Sheet447" sheetId="447" r:id="rId447"/>
+    <sheet name="Sheet448" sheetId="448" r:id="rId448"/>
+    <sheet name="Sheet449" sheetId="449" r:id="rId449"/>
+    <sheet name="Sheet450" sheetId="450" r:id="rId450"/>
+    <sheet name="Sheet451" sheetId="451" r:id="rId451"/>
+    <sheet name="Sheet452" sheetId="452" r:id="rId452"/>
+    <sheet name="Sheet453" sheetId="453" r:id="rId453"/>
+    <sheet name="Sheet454" sheetId="454" r:id="rId454"/>
+    <sheet name="Sheet455" sheetId="455" r:id="rId455"/>
+    <sheet name="Sheet456" sheetId="456" r:id="rId456"/>
+    <sheet name="Sheet457" sheetId="457" r:id="rId457"/>
+    <sheet name="Sheet458" sheetId="458" r:id="rId458"/>
+    <sheet name="Sheet459" sheetId="459" r:id="rId459"/>
+    <sheet name="Sheet460" sheetId="460" r:id="rId460"/>
+    <sheet name="Sheet461" sheetId="461" r:id="rId461"/>
+    <sheet name="Sheet462" sheetId="462" r:id="rId462"/>
+    <sheet name="Sheet463" sheetId="463" r:id="rId463"/>
+    <sheet name="Sheet464" sheetId="464" r:id="rId464"/>
+    <sheet name="Sheet465" sheetId="465" r:id="rId465"/>
+    <sheet name="Sheet466" sheetId="466" r:id="rId466"/>
+    <sheet name="Sheet467" sheetId="467" r:id="rId467"/>
+    <sheet name="Sheet468" sheetId="468" r:id="rId468"/>
+    <sheet name="Sheet469" sheetId="469" r:id="rId469"/>
+    <sheet name="Sheet470" sheetId="470" r:id="rId470"/>
+    <sheet name="Sheet471" sheetId="471" r:id="rId471"/>
+    <sheet name="Sheet472" sheetId="472" r:id="rId472"/>
+    <sheet name="Sheet473" sheetId="473" r:id="rId473"/>
+    <sheet name="Sheet474" sheetId="474" r:id="rId474"/>
+    <sheet name="Sheet475" sheetId="475" r:id="rId475"/>
+    <sheet name="Sheet476" sheetId="476" r:id="rId476"/>
+    <sheet name="Sheet477" sheetId="477" r:id="rId477"/>
+    <sheet name="Sheet478" sheetId="478" r:id="rId478"/>
+    <sheet name="Sheet479" sheetId="479" r:id="rId479"/>
+    <sheet name="Sheet480" sheetId="480" r:id="rId480"/>
+    <sheet name="Sheet481" sheetId="481" r:id="rId481"/>
+    <sheet name="Sheet482" sheetId="482" r:id="rId482"/>
+    <sheet name="Sheet483" sheetId="483" r:id="rId483"/>
+    <sheet name="Sheet484" sheetId="484" r:id="rId484"/>
+    <sheet name="Sheet485" sheetId="485" r:id="rId485"/>
+    <sheet name="Sheet486" sheetId="486" r:id="rId486"/>
+    <sheet name="Sheet487" sheetId="487" r:id="rId487"/>
+    <sheet name="Sheet488" sheetId="488" r:id="rId488"/>
+    <sheet name="Sheet489" sheetId="489" r:id="rId489"/>
+    <sheet name="Sheet490" sheetId="490" r:id="rId490"/>
+    <sheet name="Sheet491" sheetId="491" r:id="rId491"/>
+    <sheet name="Sheet492" sheetId="492" r:id="rId492"/>
+    <sheet name="Sheet493" sheetId="493" r:id="rId493"/>
+    <sheet name="Sheet494" sheetId="494" r:id="rId494"/>
+    <sheet name="Sheet495" sheetId="495" r:id="rId495"/>
+    <sheet name="Sheet496" sheetId="496" r:id="rId496"/>
+    <sheet name="Sheet497" sheetId="497" r:id="rId497"/>
+    <sheet name="Sheet498" sheetId="498" r:id="rId498"/>
+    <sheet name="Sheet499" sheetId="499" r:id="rId499"/>
+    <sheet name="Sheet500" sheetId="500" r:id="rId500"/>
+    <sheet name="Sheet501" sheetId="501" r:id="rId501"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,13 +530,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -71,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,9 +848,1333 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B4E38-D887-1D46-AADE-8D0AF57E1E12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B59EE-EF03-704F-91F1-D4547DD57891}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8F8B61-1981-374A-8130-CA3F3E50C525}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37894686-7AEF-C143-AC14-5136E562CBF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1EFEB7-D0BF-904A-A218-79E0415F8F05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623AD80-067C-E547-A924-80B4856646A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CA096-89A0-2C44-800A-D1ACEE7C2C4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B03F8F-32E0-ED45-A6DB-7895375FEB00}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC3652-4332-8B4D-B661-A60B410FC15C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF92B96-1C27-F641-BA41-5BB2D30C7E43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD669C0A-EC40-6944-8EB4-21EB7673550E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A9CB4B-169D-704B-B001-FDC7616B2401}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F8DB18-E7CB-7D4E-BF5C-339263D6F61E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040C5B8E-C715-3945-9069-957B82519675}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA261C-5D84-4C48-ABCC-A6BD7B4BE2CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BA306D-BDA8-4544-AF76-855A47D9E210}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2E47DD-3916-484B-A321-90AEA78AD4CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FB156A-398D-954D-BEC9-0FA6C46AC9EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56001D9D-B9F9-E945-A1F9-5631CF322CFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B26297-FEDD-2545-9401-AD2BACEEE212}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14058BA3-F216-A844-B2FC-B0C09F726288}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E567605-4F94-2845-9096-5FCF8B87674C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24D2F48-EB37-F647-A602-6509F775CE1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E431-5E3A-9C49-9C39-7700E517A0FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E7EE16-CE6A-234B-AE94-301907087BAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EB7CAE-8F29-C046-BCAD-10D1E257031D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD44C6DF-06C7-7244-997D-721EA79C0D5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5BFA5B-3AB2-7E4F-A214-9EC317CC1DB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F9B405-351C-BA4A-92D0-11559C5C951C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2085BDA2-3C7E-1E41-AB24-A3227195ACAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A67B1-6DAD-B34E-9C05-06F7E01FAFD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E926D6E-986C-C14B-B44E-DC151BCDE58C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FD56CA-E0FF-EC48-9481-C955E00ECFA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D1D7F-C758-564B-8AC6-9982E1DA0DCA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M13:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519331C8-9C77-D545-9673-F77121054DBD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8EC87D-9368-0A47-A3C4-5F51D15F933A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B578A4D-9DFA-6247-93F7-DA7AB0FFB7D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD9C563-9768-3D41-84F2-D303FC34661F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12A1057-5708-C145-A699-DA993E5E8D8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35EE5D-8061-6B43-973E-BA66488D865A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843431E1-0E4F-884B-A178-9F36CB61CE82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0431A7B9-38AF-CF4E-B0CE-090E05F6E874}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584E427A-03EB-B149-8618-94242D5CAC65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFFFB67-7557-A345-B827-AB4D12077E20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D195C66-BF8C-EC4C-B458-AE16B989FB8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C791CD8A-C8F9-8F47-A0C8-8AE8D3918FAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF1139B-853C-D94F-BD45-46D6442ABD8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A79651-1E22-7E4F-B2E6-A42F508D02EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B06CFE-446D-B44E-8870-A3FD47A48BCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1115928D-1BCE-0E47-9197-DC9FF16B3E28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB593793-12B3-1E4E-A67F-7FF850924FA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AD6E9-2BEC-9A48-8984-C000C041C46D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5EE32E-02D6-244F-8A9E-64864AB75614}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468C00DD-FB4E-E644-BF9F-770DF5CD6659}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE4537E-107C-A14A-9E80-222977101636}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E5022-8F0F-5A4C-A410-5CC4C84F3E7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3EE82-4BC5-7E4A-BBD0-C0E7FCA37CD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D84D44D-F444-2449-9D38-566D8D7D62B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A3E4B5-DD26-FA43-AAA3-A02E3B309B5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A907E9-21E8-1144-A967-B8ADB506425C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BFFB4B-4BB7-004D-B537-A2D445A6024B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F838CFF8-4E7F-3A47-87BB-BAC8D98EB222}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364F0B2-96D5-2345-B363-91A17649A665}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424D9336-560F-D345-A1D1-2E5064520582}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C7124-27EF-D240-B7B6-760542644CD5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2592DB4D-D09E-2D40-B920-EFDF643CB4AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9DBEDD-8A9A-AB45-B3DF-4017FF8C11A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D69DF9-2502-B84D-B661-A1B7637D8D3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED61413-F1C7-D144-8371-468C75B0A413}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A4E0F-0648-DA41-B0C5-033450CA20AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A863C53-0033-5748-8753-D09AD7511E16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23787D7-0720-8944-A894-101DCFD75826}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8933EBC9-15B5-AA40-9828-1046B42C7878}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246609CF-AF4C-ED4D-B1CC-43C0BF3D9CF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7AABF3-8BCB-1F42-A828-2F1AADAF9450}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDBFC5A-5648-EF4A-A7FA-E48E740D8B5C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2D9C9A-761E-194C-8BA5-083AEE70E643}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26BB26E-8062-CA40-B4A6-45F16B60917F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67795895-A854-1D4B-90DD-6F6E5C0E6146}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D0785B-B1F4-194F-955E-A7A7F6B99F67}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C219DE-5437-9D45-A85E-77C3C0787F48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA3A8B7-C8DE-BF41-81CC-3DF102BC2BCF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8D65F-C166-D64F-95D9-585D2B51C3A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8806706F-C41A-2F46-A65A-52BCA9F79C9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE79A4D-DD73-BC4D-9816-FD3455BA83BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DFD8D-D54F-E544-89B0-12CE871AB0C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A2852A-73C4-A847-B4A3-A166927F9DB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6629D5-E058-1F4E-AE38-CB5D2E080917}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73A0CE4-9586-C14F-AD05-A9105BF76F43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA12A5D-9BFC-8E43-8388-F9439F3BB8E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F66A7E-11C3-3842-B13D-09D1D13FC74B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306CFDB9-6E9E-8046-B8CA-B60598ABE08A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA52146B-1D25-2E4B-B6AB-715981CB0C15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56C8A2-C0AD-4E44-9039-A5C78263C5A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27608E0B-1362-F24E-B341-19A0B82CEE51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69245B0B-5733-2244-BE55-CC7C0472FE7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F0D8A1-58AC-924D-A227-79E70D6E478E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEF4A5F-21C5-8A4A-ABA0-FAFC0C837960}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A432253C-C260-1A40-8EE3-182493B0AEE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5628C690-01EE-E848-BFE3-F6D69EBFB037}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE81805-7082-5644-A43C-C1AA52385B84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BF35F8-3062-964E-8E43-3B3D145729EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D020211-EC23-8A45-8B60-CC5279925E29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483955C-53D5-F44F-B065-FDD72DC495C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2F835D-9AC9-164B-8CD6-27E27C5B7906}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet195.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332F9FF8-A4E4-E148-B308-443C94156545}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet196.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A823F9-C6C9-5848-8072-FE71185CBC7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet197.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818E1017-940F-7D47-B04C-51226A87ED7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet198.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5476CCC-D759-984E-BABA-0763D15F618A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet199.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3455CF28-92DB-F244-AEB0-65F7972D828B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -366,9 +2185,1329 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C037714-0E79-8A48-9D08-06A21B843001}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet200.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC051C-16ED-1C48-9054-C0025B6D1D19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet201.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46779177-9BA6-6743-A6C4-89464549EBB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet202.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFCD94-C73B-E84C-8661-30E51BC44D50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet203.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D3D5EF-6915-5A4A-B8CF-37A19C895123}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet204.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AC0ED-7144-C946-888B-E065B3006287}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet205.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2E5A-92FD-EE48-AE20-32A5CC370C92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet206.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE12828-974D-0445-AB8F-CE45E8BF48E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet207.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE49D8A4-CACD-D04B-99B3-2DF6800F5A26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet208.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73FA874-6A4A-0446-9C4A-B4E7C6F1712E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet209.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955496AE-438F-F043-A262-B89E5EDB7B82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A945E3-F713-BE48-B349-8BE058A064EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet210.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5038D5B1-C489-9847-A0BE-F136374DE282}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet211.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D53108D-39F0-F64C-9EAD-E76EC89F1914}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet212.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C503ADCF-FDEE-2D45-A91F-5D02D3504659}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet213.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E282F-C3F9-8A4E-9CF5-DF2441737D18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet214.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B9726B-25AC-4D40-BBEF-040A57D96656}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet215.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94643C3-DCD9-3743-B518-BCC69F2FD296}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet216.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C409CA-1114-EE4E-98B7-C9D6CC8C2C58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet217.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39D55E3-FAF8-6840-8745-05C8970389F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet218.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87B02EB-106D-0D40-839E-5BBDB01E3567}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet219.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F08038-357F-DA49-8DCB-09DF7FD68DCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D7105-267C-EE42-A37B-5873D283DF3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet220.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656217C2-0D13-CE4B-8E7F-DCEC1B828F97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet221.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5659717-D679-F649-AC08-ACEF93CD0F42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet222.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C8E19A-FF72-1E47-87A0-9ADABE7771AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet223.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B00C5B-CBC0-9E41-9CDB-201B486F53EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet224.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A510E8D3-AD25-904A-8E2E-2959923867E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet225.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A55A08-87E2-0742-875C-081AC4EA1700}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet226.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7BF472-A232-6B49-9B70-991EC128E2D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet227.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF5CF29-1373-AE47-87D3-D804374E1B46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet228.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E25123-626B-A44A-AA50-7794BF80C9CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet229.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C016E6AD-14CF-CA48-A2B8-85FA6A4CBC41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967E54AE-7A7F-DD43-8F82-EA1CC292CB3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet230.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B77E1-D5AE-2F4F-BBA3-B3F7BF662FA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet231.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBAA42F-799D-E148-8DFB-195F07F5ECB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1632F4-C556-BB4F-9689-F97598535222}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet233.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C23540D-0784-6E4A-B83F-8DCE591275AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet234.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD5E1E-B482-2A4E-B601-2B25D9366AEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet235.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A288D60-F601-EA4C-82FE-536FC2212FB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet236.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB15A392-AB6B-834A-A9D6-1C995B2A7B2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet237.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA39FF-DC1B-EE45-B96A-841B9B7BA220}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet238.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA27B523-33E3-7C4C-8104-31817F00DAA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet239.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DC51B-D37C-0D47-9BA6-7AE7DCEA5390}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04CBD80-3BB4-5E4B-8C6C-B9CF563B02D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F44BC1-0CB7-F24D-85A2-226E59C4C058}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB76D9F-4BAF-0744-AE00-1A5058CA58C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C967AA-13FB-354B-8CEE-48A1B9EE729B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FD6F8C-FBE4-5D4A-B795-9ADCE020F9D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75729B2-6A15-C942-98F9-C4198F418A8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F6A046-0A43-7E44-951B-CAF3A10F83C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet246.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4221509-AE84-8040-A05F-9F187D25A36F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet247.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB9A53D-AE85-864E-A8E8-C39D987402E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF77130-E9A7-D844-AD66-88EE548922DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet249.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC815452-FA05-DA4F-9267-BB20CA34E5D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E29188-90CD-C048-A452-3CDC32993449}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet250.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B736160C-AA69-2F4F-A622-398DC0C0526B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BD2DF-9B08-164C-9E3D-AA19D5DEFF4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet252.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C86DDA-4517-3E45-B7F5-A191D2B9E117}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet253.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B7070E-08F7-024E-8367-6A007B11CD11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet254.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BFB3FE-307B-B64A-814A-00ADBCA17DBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet255.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A094FC8-9D16-D541-9E39-CA26D2EE78CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet256.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DC99-F515-D143-9E56-8C0FB404575C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet257.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B737FF-9F22-E947-9263-D2B7E572138A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet258.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD2EACA-AA83-1342-8466-672D7C0191F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet259.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A491D757-52D2-D145-8BD6-5439B1E328BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74862E2B-A7F4-1240-A3F4-E22D41AC4DDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet260.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EAA723-2EFD-D842-9691-E96D68016EB9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet261.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A6EDAB-739B-EB42-8BF1-8E6333C1FE58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet262.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD23382-54B0-434F-9260-59127FA14D38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet263.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C422823C-D725-5944-967C-8206B8691034}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet264.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3689F91-4B5B-6245-AC7C-0A90752BB6D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet265.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5D30E-62D6-3146-876B-73275ADEA960}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet266.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC22DF7-D97F-404C-A4D0-D9955D219E56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet267.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2A03A9-1D8E-5042-8732-C38583BC944D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8912D728-95E1-6D4C-BA5E-73CB51043E3A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet269.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2505673-E137-C140-97BB-2A921AE3AC1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF98739-0026-C64B-BC7B-25084B049A2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet270.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEE6F79-4221-E04F-8ACB-590426AD1B7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet271.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE19391-5E25-AE44-A010-5049C6284F4E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet272.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669C8108-2D28-8448-AC8A-39B10584AFAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet273.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DA4298-49CA-6C4C-B108-FF4F201209D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet274.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36796B67-8FF2-FC43-8462-22CDDCEB4081}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet275.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC18123-305B-A744-9F1F-278DE2C4ED09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet276.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541538AD-1EA8-204B-BF0E-9961586824EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet277.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C49DD-08B6-E94F-9BB5-EF17747732AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet278.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE168BF0-6707-F443-8C79-9B7EEB2121E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet279.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA1FF9E-8141-1648-A67C-43608104564A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375E3C80-4D1D-D243-920C-564DE02D32F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet280.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438CF336-7D71-1A4F-8E9C-B8B97210A27F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet281.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F65DAF-90E8-2848-B6B5-742061ED05EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet282.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A948DF8E-4910-7C45-BEDA-904DE68460F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet283.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BB801C-379E-4648-971C-2AEFE1CC3BD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet284.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE66CC0B-72F1-FC4A-82DA-A24C32CCB9D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet285.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642CDE87-65DB-9C43-92AB-68361B0429B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet286.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC652650-65E9-B444-9C37-1D2A30D5D6F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet287.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E79DDAD-B2B4-F342-BF67-95D7E7F07EE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet288.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C22075-9CA0-424B-948B-F80E83572622}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet289.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C8FA1-323C-5B4A-8DF9-59A2B55A09BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489FCA3-1E40-6645-A1DF-6FCA9D1B844A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet290.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA4C68D-BCE9-C648-AD54-183953ADF2A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet291.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D8118-93F8-564C-83F3-0E47C00E10AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet292.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44584663-5C34-C24C-BDC4-95E74576E6AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet293.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579FB881-D1D7-0B4A-8BD7-63673BEC4AE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet294.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A72669-3EC1-6F44-8B8A-13917F8A2F28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet295.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DEDB92-1F19-7547-AE3A-D644CA106AE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet296.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6D54DF-9A02-2F44-BF60-87F95CAD4FE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet297.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F526C8-5990-2548-8518-F205D2851560}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet298.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19DDE2C-6BA2-FE4F-85B4-BDD71165B6F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet299.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87363916-1757-9C4F-9690-61193FEF5BCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -379,9 +3518,1329 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEF7003-B489-0241-BC54-B14E18F69214}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet300.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B400F-BCB6-2B48-82EB-C4A341DE15A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet301.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142E4926-2206-BE45-BBB7-20EF613BBA95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet302.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545A6C0C-CCA0-324B-87F2-B8D7106DB854}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet303.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD87E94-6DE9-2547-8844-D5DE81844C13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet304.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D199A903-AA21-3F41-8B84-E3859A124584}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet305.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD319D7E-0C99-7642-BB1E-5A02E2CE6E9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet306.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC322748-EA5F-A64F-A573-6DD4EB70CCFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet307.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB9BAF0-F04C-C047-9462-3F87570374E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet308.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D07E75-7ADF-864E-A33F-DF7BECE47C9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet309.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB34726-E841-2749-8787-A29A3E9CC66B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75225B9A-6636-E541-AA08-31780FADA0E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet310.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F4997-2E3D-9042-AA23-E51625610898}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet311.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E00B51-37D7-F640-9D5E-24FFBE58D35B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet312.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C41299-F45A-3143-B34F-77AB3E5D339B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet313.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C77465-56A5-0741-A15D-78CA5FB8CCF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet314.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33635173-7BAE-2F4C-A7E3-F1BBDF954A1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet315.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493B612A-A7F3-8940-885D-FD095CE01B8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet316.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDE080B-A318-8241-BA13-4A9C82649CD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet317.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F28423-565C-7642-982E-6DEE02C714A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet318.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FE745B-869E-D74E-800D-3B94F2394961}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet319.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A9A839-BB5D-BE41-91FF-CEAFB510BFA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FB29C4-A99F-D246-A23E-6084E8FD62F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet320.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F35651-FCCF-EF40-9345-FCEF53243DB3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet321.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6409C48-643A-0C4F-BB15-6A6CCE60E3AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet322.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12DEB9-D3BF-D04B-A563-3E76DAF6DF2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet323.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8AF1CA-A7D8-A141-B468-C1354A0E1F0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet324.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4EB7F-B03E-4D40-879C-BEE9036BF498}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet325.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94B3D6B-714A-F34E-AC91-FD1670B0F3EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet326.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A8E706-36F8-DB4E-9672-49CFCFB1C67D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet327.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6C9C99-6980-7646-8747-4A26A5B41C9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet328.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23716799-C32A-F742-B33C-CFFBB0B37794}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet329.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A7CC4-FE80-D648-8573-4D55ED79F976}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EF3611-05CB-6C4B-8F09-0190BAE6F69B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet330.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F59EC-B507-9B41-8F2F-D769B9AA7422}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet331.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B364E367-63B5-5741-A158-45FA8FD77D94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet332.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DFF63A-5D59-F444-A694-6B87CC7B4B6D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet333.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F211E9FC-0AE0-3745-8184-2FBFF9203F83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet334.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65625B04-8936-B440-A89F-A2B2B4AA85F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet335.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258D22B3-CB00-6D4F-AFFD-CA77F94C2AD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet336.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3041C66-3818-3F4C-BEF0-2EE0D5E6F984}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet337.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92315B83-43BA-6D42-8A46-10751291633E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet338.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA3B4CC-310B-DE4B-B2B3-C075497DADE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet339.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5639EC39-B60A-704C-85E9-09C38607887A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA5535A-F217-2646-A642-9C5E54B7F94E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet340.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275BE76E-D43F-FF46-B0F3-71181B07D307}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet341.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AA20AC-57DB-2B44-A6B1-E971EE5E6E47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet342.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11CA20C-9719-AC49-9084-95FC76E469AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet343.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B30E447-DA5D-744A-96FB-0647F2C003FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet344.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC4A82-A6EF-4541-B386-1402C820C24D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet345.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB611E0D-7F33-E84E-AB37-6D76F8DA9425}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet346.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A078005-EEDA-6345-8B4A-1F253A127353}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet347.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D4B41A-F0D8-A643-90F8-3988BD9E52AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet348.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BC8D0-5B6B-DB4E-9DC1-04A586A1842C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet349.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6BDF6E-D7AE-494C-B30C-26E4BC03ADED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C1566C-BB23-C443-BCD4-6F7348CF0A61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet350.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F4FEF-9F34-1D44-A917-E4D2340AF60D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet351.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8136C80-4294-0D4F-924B-EC3E44112ADC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet352.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F9CFEF-7756-0342-B2C7-10BE742C3722}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet353.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BFE913-77E9-9C4A-B571-2BE7ECDA945D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet354.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B6E83E-4C53-E94F-9E36-188C6FF42BB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet355.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E720DB9-ABF6-664E-A5E9-FE4B45CB6754}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet356.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C27F9D3-6B93-A947-A2B1-291691A56635}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet357.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A41BA82-7E9E-1A4F-AD98-BDDDCC5CD81A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet358.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E214F2C9-4331-2C48-B70D-BD3928E25122}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet359.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229ACF40-FA94-5946-B7BD-7FFCF9A3402A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15890A2D-5EE5-B245-9910-7879A16A1D5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet360.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B2428F-3E7F-754E-8463-8C7C34CBC34D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet361.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C1C724-21BD-374B-A2F3-96B6D1CE2084}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet362.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441C296C-4541-804C-9D69-208492B1AF5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet363.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6191C57B-25FF-9848-84F9-B08F8B826A4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet364.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BEAC75-DF1E-454C-AE0D-8144D603DA01}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet365.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8178621A-9234-BC4B-B6F1-D182E9569BD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet366.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CA580-B4E5-614C-9E04-9201EB79DD38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet367.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67EAC1C-4AA6-5141-86A8-F82ADD9B6EEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet368.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB4F188-6046-B54E-B9AA-28EF9ADE5E24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet369.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E3291-7AF2-7342-8A55-2A9E7AB0AFA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8EB0FB-6405-9A4C-B605-EF97D80B6EAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet370.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AFB3CD-DCBC-1A4D-ABE7-3244FEA7BCAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet371.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575445E7-974D-AB44-B0F3-F94C403D5C88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet372.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5949F4E6-2244-B742-A237-73AB98E15722}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet373.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB6A49-85B9-4A4E-B042-E49F292FCEE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet374.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7637D-17E7-7547-BD0D-41D61862A44A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet375.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499370CC-EE7B-DB44-A396-61DDAD67A9C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet376.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A42951-8DBA-8045-AEA9-114BD4A354A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet377.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D3BC6-925B-3149-8539-6F4E26477351}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet378.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5346C0-9DC8-3F47-902C-08A4DE1F2417}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet379.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4D76CD-5E11-0C4F-B667-EFDA2DBDDB9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AD884A-5A85-C94C-B8EF-5DFA29FE0574}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet380.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA163A3B-2E6E-0648-81FD-B2DCA3AFB75E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet381.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA844D9C-1577-DE49-AE77-22D10F70F11F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet382.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB54AA3A-722C-2D4C-AF89-FB54FA1D398F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet383.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14356BC-FD8D-4346-BE16-DC6FAFB35F69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet384.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5BAD3-7480-DB47-9E65-3DB7E0ADF8ED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet385.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38290D9-E160-2344-AE2F-A36D697AA1B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet386.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DAA8F8-92E2-8E48-B22D-6834DDA76DDD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet387.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7322E6B4-A68A-C240-B7EA-0E19BF0B66C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet388.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D93433F-D340-304D-9FA7-4DF848422C0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet389.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44159951-347D-2546-9DE4-167B076731FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E202133-2B85-0F43-BB1F-018D3E176E06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet390.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86113BB0-CBBD-0D49-9280-B21900EC227C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet391.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBD9E8-95E9-A149-AD28-59525FDE035E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet392.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53939C5-7912-5F42-A420-F5D72C9A34BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet393.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87E0BF-53E8-6048-A3D1-1A3DF682DDB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet394.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB8B65B-493B-B34B-8D1F-9EE4D66A61B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet395.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8903DFE2-5304-1C4B-89BD-4E9A59C995C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet396.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DAB43B-DDCF-3042-9728-76777198265D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet397.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7889093-B5D1-EB4A-8504-D2D45F785C5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet398.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0091CFCD-7355-F045-AF59-E984435242C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet399.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFB6FA7-CFBB-CD48-BF70-022161136C58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -392,9 +4851,1329 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE144D6E-A396-DA49-ACBA-E76165D72F9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet400.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC98BF7-CFDF-A847-A65A-E6F599E4666D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet401.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9872F7FC-F716-B94D-BF06-A7631552DDB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet402.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B306AAB3-A625-3547-AAD1-DE28B7328FD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet403.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAF482-2625-5748-8550-E093F0F5FAA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet404.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2794AB-6432-CF49-A2FE-47B23C9E625D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet405.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B54E840-333E-4A4C-B300-B94EC952F4F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet406.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A553C9-CBD0-A441-BAAB-D8D83A678054}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet407.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43503CD9-1DCA-5B45-94EB-35A13DFBC86D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet408.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617EBFA-EFDB-B14E-B3C6-167D89C85EF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet409.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB62470-E300-AB4C-B4DA-3F51A76408E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AADFAB-869E-724F-9BE2-533AEA8C5C6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet410.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9E6C8D-B7AF-1D4B-A84C-C1D627AB6FF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet411.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD4994-F80E-4E4A-9090-C481B502A185}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet412.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985606B5-2E6B-3342-A296-B4DCE653AEB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet413.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82AB456-31F4-1F4C-B299-42CEE9AAEEBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet414.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FDC744-2A5D-2C4D-8952-508D0823F9B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet415.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AAEA40-212D-DD4A-8C79-62E865DEC65E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet416.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D17A52-91EF-2441-A834-EE0FECDD9BC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet417.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA46FC2-D8F7-454A-84F2-A871BAF10067}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet418.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEB0AAB-EA16-2143-A50D-7711C1AA008F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet419.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0941E-67E6-FD43-BFC8-123F7BF7DE6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396EECAA-9D8B-8840-8DAC-6B362EBA81FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet420.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC1C366-E295-3042-9FE3-4E3209D8E21C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet421.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A38222C-A07C-744F-B198-028226357B1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet422.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D20EC4-A253-0A47-AAB4-5CB9DB759AB4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet423.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF6E675-5571-8E49-BF28-CE0C5FE7D326}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet424.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743DE968-939F-A04B-A057-3BD0A9093372}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet425.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A10EB-E689-DC44-AD0A-403D8F59B787}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet426.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D107587C-B9A8-0447-88FA-1BB58B1D35B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet427.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF25A81-D27B-FC47-AEEA-52B1CAD72F44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet428.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB7A54C-B170-DF4F-AC15-A4C339386924}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet429.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFF4AF3-0B20-D044-8CD7-A4B64E0BBB68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18A32DD-EF3F-694A-8542-C72FA92082AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet430.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960AD7-3B5A-1240-8671-5553B04E3F4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet431.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC800F-C6A1-6947-8399-803AB5AFEF56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet432.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A5EECC-0EC8-3E47-AD07-9E67199903D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet433.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA639734-9D51-F045-8804-0824770A4469}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet434.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8BD753-935C-1C4D-A6FD-9F360185DFC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet435.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF5D098-4B5C-B740-9238-98AD3AEBFB1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet436.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F147E-2F9E-044D-8242-6E9E4F439C61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet437.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E49B5E-7FE1-0F42-8F0D-BEA81136865E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet438.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A1E00-25D6-1F4E-B543-E0984F3172E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet439.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C03FC18-07C0-FD4C-B003-A7AA46249666}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F6E049-4744-8147-AC6F-DCF1B65155ED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet440.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849C016-F4F2-3041-9600-3D8C995E66A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet441.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630CB135-C19B-4449-927D-2E258DA88DB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet442.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE27DC40-CC4E-7441-A4EE-D17DB71C353B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet443.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA5C0B5-8734-F348-ACF1-777CBE24AE9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet444.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1103647B-EF95-4E4C-BC8D-766989C3BC44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet445.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DC1C0E-EBC5-5F41-8180-F85959EAD0B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet446.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A87B2A-861B-3D44-8DC2-8E87DCDFD767}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet447.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F3416C-48C8-7E4D-B0D5-61D8DF6E0D61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet448.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E99AE2-2C5F-3F45-823F-2F613C3C8701}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet449.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6AEAD-C105-8342-9B13-369A29F41C66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE590A0-9255-1649-97D4-0F4A68861F25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet450.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECA8BED-901A-A647-89C4-87C1F102ED2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet451.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35764B40-F3CF-C547-9391-577B94933D7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet452.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643F94EB-72F8-6649-BA36-6D7FC5FBDB13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet453.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CC5664-A64A-BF42-B31D-8CB036DBF5A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet454.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5AB4E-6EF5-C242-A81D-4E5BA413F090}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet455.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E301A80-C798-6E44-A681-37364799BF95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet456.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4EDC21-EE35-D245-93F3-720F1605753E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet457.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71383267-D912-384A-9C8F-732038E7F9A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet458.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABEC76C-6BD8-4041-A1EA-0D0E3EAE9169}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet459.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5C7AF9-803B-AE4A-93D9-3BDE5BD3C13D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C8CC00-F3FA-EB4E-8249-364F8A31C7E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet460.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9325810A-2E71-4A45-9260-88402542F3A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet461.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BD0B2-1845-9947-8F85-BC0D59B5F239}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet462.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8C0D8C-5C07-0640-B7C5-A4F93C197B54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet463.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D08F20F-FD74-8C42-A69A-0185FAF011EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet464.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4B2E4-E807-FD4F-B4AE-28F32BBC7A88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet465.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EDC01-0DAA-AE4C-8289-E94E73E327DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet466.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0B63D7-9FC7-E748-87EC-F7881DCC67AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet467.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0671F6D9-3826-EF41-8784-CB7BE6F605A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet468.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29EB2E-CB16-8749-AD47-FEBF450219A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet469.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B23472C-EC6B-EE4D-85EB-08971236F9BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEECDCD-E862-3540-90AE-E1CAC2B631B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet470.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F8577-C467-FB49-8EE2-3B25FE8D31FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet471.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB5AFA5-603C-4B48-AF9B-4998E13D8B5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet472.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532FBDD9-9E19-4044-8C25-5D900FDA9D7B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet473.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B9410-3108-B94F-B8C3-067EBB146842}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet474.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0562FD5-B45B-8740-B053-516DD35278C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet475.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3DACFD-9F53-4647-9ABD-CB866806DC6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet476.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14C731-12C9-CA4C-A062-E5984963A4EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet477.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2F954-0030-EE40-9017-161D4AF5AF70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet478.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E4252A-59B0-E04E-9BCB-0D3E47E5AD2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet479.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31203151-8115-1345-81CE-BBA2BCBEBFD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC13CB0D-9F9F-6742-ADE2-BEBA2E28FF88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet480.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6119F8CD-20AB-2F4F-9A23-E43900A2D5D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet481.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C507197-A75B-624B-937B-AFC15FDEF32E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet482.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81173F51-D306-1A40-8483-B6918ACED8DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet483.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4CCA92-9C5C-B14E-B40E-E34CA4B2141F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet484.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D76ED76-B63E-204B-9A2F-0D7CB4260F0C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet485.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E85545-F53D-9D42-95BA-5414B7B0AD64}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet486.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9129B-A080-6547-A39C-2FD46525413C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet487.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B773F-9BCB-0E4F-9281-0C090CFAD0AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet488.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4DB3CE-F75E-0343-AF76-489FBCB90867}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet489.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38D2F22-4C85-ED4D-A672-F20FAE1D04BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A314C-8C59-7145-AD5B-4E8E886B47D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet490.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2AE96B-13A2-4249-96D3-1F0E002E63A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet491.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7F098C-E549-C043-9058-F9FAC22D10CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet492.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E1DEB-CC75-6B42-B16F-FF6DC5265946}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet493.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE86D1E-FA4D-1F44-85B1-7956A2A56B22}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet494.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C42905-5C3C-3047-ABD0-FA50C690F71D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet495.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3B5CDB-C0E0-C64B-8702-E1FB521902A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet496.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976964C5-A341-1D43-9DD4-D81FD7A5347B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet497.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE72E9-BEB2-BF4C-9FD9-B27DF615DFB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet498.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C06D91D-5EE2-054F-89C8-481BBD420EAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet499.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AB760C-FB2A-414F-A3E1-4856FA13A567}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -405,9 +6184,153 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318DDC3D-613E-BC47-83F6-3D8E2DF5E07E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet500.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E1E47-CD08-984E-A370-484B60BA304F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet501.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF6004-12C3-004A-87F9-9C612B5E58E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E75E2-B31F-5C4B-AB67-6A3702FB04CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603F96D2-C2EA-6A42-B443-8EA8F8F96DD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339794E5-DE01-BE4E-9A9D-282A86B30B15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7686D81-BA4E-5042-9B50-E79F6A4D3360}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CB8B5A-43D3-4744-B889-43C83DAFB104}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ABE2C2-413C-8546-86BA-4116FFAF3849}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56F7181-CC2F-7B48-9789-2D6DD9290A57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A396C9-DE65-9B47-8DD3-7DA1DD05AFD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26E3EEE-9C6A-AD43-B816-908E30F86526}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -416,11 +6339,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B34CAA-315D-4E58-85A8-51C42038F19C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EC6E5A-0750-E540-8F88-6C1150CD3502}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EEA42-264F-2A47-BB0D-4AE62BD1C14C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF4D3C0-DB68-DE42-8E46-2BBD82A193F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F47F7-5DF4-454C-8850-D26641FEAC93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28983509-A3D8-E244-9255-EAFBA35D1804}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57B046D-85F7-C144-A913-D1EB4499010E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD811C50-FADC-DE4D-9090-6A63C9BC2BF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0905C8-8B8F-9C41-A6A1-0E15426FA644}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58557AA5-0FD9-FB41-B137-EBBAD684AA88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1C648-1E47-DF46-82C4-5DE076D894FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03856A80-9D66-7B4F-AD36-538761A49752}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949507EF-00FC-0449-B04B-96D8E8ECAFD5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5CC5FD-AD25-9345-ABA9-A6E2925B34AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6662151-8539-3042-B43E-CA69EE5E4FFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F8DB3-2351-9B4C-8D64-55C85876045F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141954F5-5ACE-8942-9C5C-C1C44912A2DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CC087D-CF27-7344-83AA-7BF61E75C011}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56305B4B-666F-464B-B513-A91CDDA557D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC9D295-7B73-044B-887B-7308B060FFD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AC236B-3846-364E-8174-977164C014A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC8925-B49F-0647-9719-B21F0FE68573}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E7D0B-9E70-F74D-BE0F-A2A0A655949B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CCD488-03A5-AC44-A7FC-D307F782D0D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E66EDB3-D0C9-CC47-97E0-85C69B8A867C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A92E7-7D28-3042-88C6-E332180BC938}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421D7C5D-4D17-AB47-8BC0-A77E69F76C9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683E42E-637B-A04E-AF3C-9B1463EAC32B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86938F9-E7B2-0F49-A1E7-7D1F4E92395C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7307578-F2BD-1B4E-A9B8-F3CD4025F653}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC93812-0E3A-9149-9F98-DF81197D2F28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2EED1-1B63-8B4B-9218-29B382BE0857}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AA3CB4-8E73-4247-8C84-23021858716A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C16167-2F51-C446-8424-366D555A472A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD38FAD2-79FF-9A48-B314-595BCDD5C375}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F5F2DF-EAFD-0542-BF88-98D6E4472B82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1356E0-70EF-E844-B894-802AC0E2EF32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2323504-61A5-BC48-B9E5-47EA074615BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768C4124-AE63-F448-A645-98DBE4A731DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0458E5EF-2CAD-4447-91A9-C883540D0DEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC543D35-458A-B344-BFD7-0BFDD7CC831D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66851D8-130B-3346-A22D-AD0B04C3EA10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E46DD-86B2-D447-810F-A37E193ACB5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE6492B-FDCE-3F4C-B292-7216AA246A4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>